--- a/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -748,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -769,19 +769,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,7 +1097,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1136,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="7"/>
@@ -1152,12 +1140,12 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="7"/>
-      <c r="S1" s="12"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="5" t="s">
@@ -1167,10 +1155,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="7"/>
@@ -1183,12 +1171,12 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R2" s="7"/>
-      <c r="S2" s="12"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="5" t="s">
@@ -1197,55 +1185,55 @@
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1253,43 +1241,43 @@
       <c r="B4" s="2">
         <v>1001</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="11" t="s">
+        <v>100101</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>200000</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="2">
         <v>200000</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="2">
         <v>10000</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>10000</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="2">
         <v>60000</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P4" s="4">
@@ -1309,43 +1297,43 @@
       <c r="B5" s="2">
         <v>1002</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="11" t="s">
+        <v>100201</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>200000</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="2">
         <v>200000</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="2">
         <v>10000</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
         <v>10000</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="2">
         <v>60000</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="4">
@@ -1365,43 +1353,43 @@
       <c r="B6" s="2">
         <v>1003</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="11" t="s">
+        <v>100301</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>200000</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="2">
         <v>200000</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="2">
         <v>10000</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
         <v>10000</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="2">
         <v>60000</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="P6" s="4">

--- a/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1284,13 +1284,13 @@
         <v>5000</v>
       </c>
       <c r="Q4" s="2">
-        <v>10000001</v>
+        <v>10010001</v>
       </c>
       <c r="R4" s="2">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="S4" s="4">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:19">
@@ -1340,13 +1340,13 @@
         <v>5000</v>
       </c>
       <c r="Q5" s="2">
-        <v>10000001</v>
+        <v>10010001</v>
       </c>
       <c r="R5" s="2">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="S5" s="4">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:19">
@@ -1396,13 +1396,13 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="2">
-        <v>10000001</v>
+        <v>10010001</v>
       </c>
       <c r="R6" s="2">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="S6" s="4">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1275,7 +1275,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="2">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>23</v>
@@ -1331,7 +1331,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="2">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>23</v>
@@ -1387,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="2">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>23</v>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>速度B</t>
+  </si>
+  <si>
+    <t>攻击距离B</t>
   </si>
   <si>
     <t>攻速B</t>
@@ -1094,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1107,16 +1110,18 @@
     <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="6" max="15" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="17" max="18" width="12.0446428571429" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="20" max="25" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="26" max="27" width="7.78571428571429" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="14" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.2142857142857" style="2" customWidth="1"/>
+    <col min="16" max="17" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="19" max="20" width="12.0446428571429" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="22" max="27" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="28" max="29" width="7.78571428571429" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1140,14 +1145,16 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="9"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="9"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1171,14 +1178,16 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="7" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="9"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="9"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1224,20 +1233,26 @@
       <c r="O3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:21">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
@@ -1280,25 +1295,31 @@
       <c r="O4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="4">
         <v>5000</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>10010001</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>10010101</v>
       </c>
-      <c r="S4" s="4">
+      <c r="U4" s="4">
         <v>10010201</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:19">
+    <row r="5" s="1" customFormat="1" spans="2:21">
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>100201</v>
@@ -1336,25 +1357,31 @@
       <c r="O5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="4">
         <v>5000</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>10010001</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>10010101</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <v>10010201</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:19">
+    <row r="6" s="1" customFormat="1" spans="2:21">
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>100301</v>
@@ -1392,25 +1419,31 @@
       <c r="O6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="4">
         <v>5000</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>10010001</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>10010101</v>
       </c>
-      <c r="S6" s="4">
+      <c r="U6" s="4">
         <v>10010201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="E2:R2"/>
+    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,9 @@
     <t>skin</t>
   </si>
   <si>
+    <t>radius</t>
+  </si>
+  <si>
     <t>props</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>默认皮肤</t>
+  </si>
+  <si>
+    <t>半径</t>
   </si>
   <si>
     <t>属性类型</t>
@@ -1097,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1108,20 +1114,20 @@
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="8.14285714285714" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.7142857142857" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.1160714285714" style="3" customWidth="1"/>
-    <col min="6" max="14" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.2142857142857" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.1160714285714" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.1160714285714" style="4" customWidth="1"/>
-    <col min="19" max="20" width="12.0446428571429" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="22" max="27" width="9.42857142857143" style="1" customWidth="1"/>
-    <col min="28" max="29" width="7.78571428571429" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.14285714285714" style="1"/>
+    <col min="4" max="5" width="21.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.1160714285714" style="3" customWidth="1"/>
+    <col min="7" max="15" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.2142857142857" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.1160714285714" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.1160714285714" style="4" customWidth="1"/>
+    <col min="20" max="21" width="12.0446428571429" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="23" max="28" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="29" max="30" width="7.78571428571429" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1132,10 +1138,12 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -1147,28 +1155,31 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="9"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1180,270 +1191,283 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="9"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="S3" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="T3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:22">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>100101</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
         <v>200000</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
         <v>200000</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
         <v>10000</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
         <v>10000</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="2">
         <v>40000</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="2">
         <v>30000</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="4">
         <v>5000</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>10010001</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>10010101</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>10010201</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:21">
+    <row r="5" s="1" customFormat="1" spans="2:22">
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>100201</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
         <v>200000</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2">
         <v>200000</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
         <v>10000</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
         <v>10000</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="2">
         <v>40000</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="2">
         <v>30000</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="R5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="4">
         <v>5000</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>10010001</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>10010101</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>10010201</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:21">
+    <row r="6" s="1" customFormat="1" spans="2:22">
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>100301</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
         <v>200000</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2">
         <v>200000</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
         <v>10000</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
         <v>10000</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2">
         <v>40000</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2">
         <v>30000</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="R6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="4">
         <v>5000</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>10010001</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>10010101</v>
       </c>
-      <c r="U6" s="4">
+      <c r="V6" s="4">
         <v>10010201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="E2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="F1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="T2:V2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -31,7 +31,10 @@
     <t>props</t>
   </si>
   <si>
-    <t>skills</t>
+    <t>normal_skills</t>
+  </si>
+  <si>
+    <t>active_skills</t>
   </si>
   <si>
     <t>##type</t>
@@ -1103,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1121,13 +1124,15 @@
     <col min="17" max="18" width="10.1160714285714" style="2" customWidth="1"/>
     <col min="19" max="19" width="10.1160714285714" style="4" customWidth="1"/>
     <col min="20" max="21" width="12.0446428571429" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.0446428571429" style="4" customWidth="1"/>
-    <col min="23" max="28" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.07142857142857" style="4" customWidth="1"/>
+    <col min="23" max="24" width="12.0446428571429" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.0446428571429" style="4" customWidth="1"/>
+    <col min="26" max="28" width="9.42857142857143" style="1" customWidth="1"/>
     <col min="29" max="30" width="7.78571428571429" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.14285714285714" style="1"/>
+    <col min="31" max="16383" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1162,23 +1167,28 @@
       </c>
       <c r="U1" s="7"/>
       <c r="V1" s="9"/>
+      <c r="W1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:25">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1194,85 +1204,99 @@
       <c r="R2" s="7"/>
       <c r="S2" s="9"/>
       <c r="T2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="9"/>
+      <c r="W2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="M3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="O3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="Q3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="S3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:24">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>100101</v>
@@ -1281,43 +1305,43 @@
         <v>3000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2">
         <v>200000</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2">
         <v>10000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>10000</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" s="2">
         <v>40000</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="2">
         <v>30000</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S4" s="4">
         <v>5000</v>
@@ -1325,19 +1349,21 @@
       <c r="T4" s="2">
         <v>10010001</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="2"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="2">
         <v>10010101</v>
       </c>
-      <c r="V4" s="4">
+      <c r="X4" s="2">
         <v>10010201</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:22">
+    <row r="5" s="1" customFormat="1" spans="2:25">
       <c r="B5" s="2">
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>100201</v>
@@ -1346,43 +1372,43 @@
         <v>3000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2">
         <v>200000</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2">
         <v>10000</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>10000</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="2">
         <v>40000</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="2">
         <v>30000</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S5" s="4">
         <v>5000</v>
@@ -1390,19 +1416,22 @@
       <c r="T5" s="2">
         <v>10010001</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="2"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="2">
         <v>10010101</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="1">
         <v>10010201</v>
       </c>
+      <c r="Y5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:22">
+    <row r="6" s="1" customFormat="1" spans="2:25">
       <c r="B6" s="2">
         <v>1003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>100301</v>
@@ -1411,43 +1440,43 @@
         <v>3000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2">
         <v>200000</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2">
         <v>10000</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>10000</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" s="2">
         <v>40000</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="2">
         <v>30000</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S6" s="4">
         <v>5000</v>
@@ -1455,19 +1484,24 @@
       <c r="T6" s="2">
         <v>10010001</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="2"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="2">
         <v>10010101</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="1">
         <v>10010201</v>
       </c>
+      <c r="Y6" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="F1:S1"/>
     <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="F2:S2"/>
     <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Unit/Hero.xlsx
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
@@ -1291,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:25">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
@@ -1349,13 +1349,14 @@
       <c r="T4" s="2">
         <v>10010001</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="4"/>
       <c r="W4" s="2">
         <v>10010101</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>10010201</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>10010301</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:25">
@@ -1424,7 +1425,9 @@
       <c r="X5" s="1">
         <v>10010201</v>
       </c>
-      <c r="Y5" s="4"/>
+      <c r="Y5" s="4">
+        <v>10010301</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:25">
       <c r="B6" s="2">
@@ -1492,7 +1495,9 @@
       <c r="X6" s="1">
         <v>10010201</v>
       </c>
-      <c r="Y6" s="4"/>
+      <c r="Y6" s="4">
+        <v>10010301</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
